--- a/teaching/traditional_assets/database/data/mexico/mexico_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/mexico/mexico_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.115</v>
+        <v>0.105</v>
       </c>
       <c r="E2">
-        <v>0.202</v>
+        <v>0.11635</v>
       </c>
       <c r="F2">
-        <v>0.07275000000000001</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,91 +606,91 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.003231058983133315</v>
+        <v>0.001177587722684887</v>
       </c>
       <c r="J2">
-        <v>0.0023731961017755</v>
+        <v>0.000959752250139885</v>
       </c>
       <c r="K2">
-        <v>4970</v>
+        <v>3025.9</v>
       </c>
       <c r="L2">
-        <v>0.3681236065743765</v>
+        <v>0.2635962123125975</v>
       </c>
       <c r="M2">
-        <v>2036.42</v>
+        <v>534.273</v>
       </c>
       <c r="N2">
-        <v>0.03899783219836534</v>
+        <v>0.01157083733088463</v>
       </c>
       <c r="O2">
-        <v>0.4097424547283702</v>
+        <v>0.1765666413298523</v>
       </c>
       <c r="P2">
-        <v>1961.7</v>
+        <v>296.723</v>
       </c>
       <c r="Q2">
-        <v>0.03756692991796058</v>
+        <v>0.006426178312084047</v>
       </c>
       <c r="R2">
-        <v>0.3947082494969819</v>
+        <v>0.09806107273868932</v>
       </c>
       <c r="S2">
-        <v>74.71999999999997</v>
+        <v>237.55</v>
       </c>
       <c r="T2">
-        <v>0.03669184156509952</v>
+        <v>0.4446228800631887</v>
       </c>
       <c r="U2">
-        <v>8836.199999999999</v>
+        <v>13207.4</v>
       </c>
       <c r="V2">
-        <v>0.1692149187648893</v>
+        <v>0.2860348117234554</v>
       </c>
       <c r="W2">
-        <v>0.1948428019856591</v>
+        <v>0.1206134650376917</v>
       </c>
       <c r="X2">
-        <v>0.06719836857782198</v>
+        <v>0.07357343801793793</v>
       </c>
       <c r="Y2">
-        <v>0.1276444334078372</v>
+        <v>0.04704002701975378</v>
       </c>
       <c r="Z2">
-        <v>0.1549781892298993</v>
+        <v>0.1235499211682527</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04477518580605948</v>
+        <v>0.04244073081189914</v>
       </c>
       <c r="AC2">
-        <v>-0.04476577939185675</v>
+        <v>-0.04244073081189914</v>
       </c>
       <c r="AD2">
-        <v>71272.8</v>
+        <v>82296.59999999999</v>
       </c>
       <c r="AE2">
-        <v>1077.888978873077</v>
+        <v>494.9105862749169</v>
       </c>
       <c r="AF2">
-        <v>72350.68897887308</v>
+        <v>82791.51058627492</v>
       </c>
       <c r="AG2">
-        <v>63514.48897887308</v>
+        <v>69584.11058627492</v>
       </c>
       <c r="AH2">
-        <v>0.5808058584164515</v>
+        <v>0.6419657939035568</v>
       </c>
       <c r="AI2">
-        <v>0.704459097880472</v>
+        <v>0.7374991116936478</v>
       </c>
       <c r="AJ2">
-        <v>0.5488005183233629</v>
+        <v>0.6011159833402374</v>
       </c>
       <c r="AK2">
-        <v>0.6766384649479159</v>
+        <v>0.7024979016100468</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>274.9722222222222</v>
+        <v>731.5253333333333</v>
       </c>
       <c r="AP2">
-        <v>245.0404667394794</v>
+        <v>618.5254274335549</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grupo Elektra, S.A.B. de C.V. (BMV:ELEKTRA *)</t>
+          <t>Grupo Financiero Inbursa, S.A.B. de C.V. (BMV:GFINBUR O)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,10 +722,13 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.115</v>
+        <v>0.266</v>
       </c>
       <c r="E3">
-        <v>0.535</v>
+        <v>-0.0139</v>
+      </c>
+      <c r="F3">
+        <v>0.0517</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -734,103 +737,97 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01203170928667791</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.008445544140396888</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1040.2</v>
+        <v>591.6</v>
       </c>
       <c r="L3">
-        <v>0.3028855953178231</v>
+        <v>0.4681490860172509</v>
       </c>
       <c r="M3">
-        <v>50.6</v>
+        <v>34.3</v>
       </c>
       <c r="N3">
-        <v>0.003002165593758343</v>
+        <v>0.00519594625301077</v>
       </c>
       <c r="O3">
-        <v>0.04864449144395309</v>
+        <v>0.05797836375929682</v>
       </c>
       <c r="P3">
-        <v>50.6</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.003002165593758343</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.04864449144395309</v>
+        <v>-0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>34.3</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>1081</v>
+        <v>2780.2</v>
       </c>
       <c r="V3">
-        <v>0.0641371740484737</v>
+        <v>0.4211594685895202</v>
       </c>
       <c r="W3">
-        <v>0.2528009332393613</v>
+        <v>0.08106330501507263</v>
       </c>
       <c r="X3">
-        <v>0.0565922973291411</v>
+        <v>0.0601118431136857</v>
       </c>
       <c r="Y3">
-        <v>0.1962086359102202</v>
+        <v>0.02095146190138693</v>
       </c>
       <c r="Z3">
-        <v>0.2878878658909386</v>
+        <v>0.1021452358627825</v>
       </c>
       <c r="AA3">
-        <v>0.002431369678866582</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04479620677191842</v>
+        <v>0.04182423572113846</v>
       </c>
       <c r="AC3">
-        <v>-0.04236483709305184</v>
+        <v>-0.04182423572113846</v>
       </c>
       <c r="AD3">
-        <v>10382.3</v>
+        <v>6523.3</v>
       </c>
       <c r="AE3">
-        <v>642.3975039838103</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>11024.69750398381</v>
+        <v>6523.3</v>
       </c>
       <c r="AG3">
-        <v>9943.697503983809</v>
+        <v>3743.1</v>
       </c>
       <c r="AH3">
-        <v>0.3954452958127088</v>
+        <v>0.4970284808679883</v>
       </c>
       <c r="AI3">
-        <v>0.6912383837011264</v>
+        <v>0.4839745967682104</v>
       </c>
       <c r="AJ3">
-        <v>0.3710584453490047</v>
+        <v>0.3618479563821971</v>
       </c>
       <c r="AK3">
-        <v>0.6687897104756295</v>
+        <v>0.3498747476258132</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>61.14428739693756</v>
-      </c>
-      <c r="AP3">
-        <v>58.56123382793762</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +838,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Banco Santander México, S.A., Institución de Banca Múltiple, Grupo Financiero Santander México (BMV:BSMX B)</t>
+          <t>Banco del Bajío, S.A., Institución de Banca Múltiple (BMV:BBAJIO O)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -850,13 +847,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.107</v>
+        <v>0.148</v>
       </c>
       <c r="E4">
-        <v>0.0771</v>
+        <v>0.229</v>
       </c>
       <c r="F4">
-        <v>0.0823</v>
+        <v>-0.145</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -865,103 +862,97 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.000695400169837947</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0005272476921783579</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1064.2</v>
+        <v>185.6</v>
       </c>
       <c r="L4">
-        <v>0.3215202876219825</v>
+        <v>0.3443413729128015</v>
       </c>
       <c r="M4">
-        <v>501.77</v>
+        <v>9.9</v>
       </c>
       <c r="N4">
-        <v>0.05427767861971984</v>
+        <v>0.006068779501011464</v>
       </c>
       <c r="O4">
-        <v>0.4714997180981019</v>
+        <v>0.05334051724137932</v>
       </c>
       <c r="P4">
-        <v>496.1</v>
+        <v>0.02</v>
       </c>
       <c r="Q4">
-        <v>0.05366434095948943</v>
+        <v>1.226016060810397e-05</v>
       </c>
       <c r="R4">
-        <v>0.4661717722232663</v>
+        <v>0.0001077586206896552</v>
       </c>
       <c r="S4">
-        <v>5.670000000000016</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="T4">
-        <v>0.01129999800705506</v>
+        <v>0.9979797979797981</v>
       </c>
       <c r="U4">
-        <v>3394.2</v>
+        <v>1013.3</v>
       </c>
       <c r="V4">
-        <v>0.3671588512088269</v>
+        <v>0.6211610372095875</v>
       </c>
       <c r="W4">
-        <v>0.1562082581061841</v>
+        <v>0.1206134650376917</v>
       </c>
       <c r="X4">
-        <v>0.09603609892272574</v>
+        <v>0.07357343801793793</v>
       </c>
       <c r="Y4">
-        <v>0.06017215918345831</v>
+        <v>0.04704002701975378</v>
       </c>
       <c r="Z4">
-        <v>0.1205182449481459</v>
+        <v>0.1755054328537053</v>
       </c>
       <c r="AA4">
-        <v>6.354296651429595e-05</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04475063624609597</v>
+        <v>0.04243773322277765</v>
       </c>
       <c r="AC4">
-        <v>-0.04468709327958167</v>
+        <v>-0.04243773322277765</v>
       </c>
       <c r="AD4">
-        <v>25921.1</v>
+        <v>2656.5</v>
       </c>
       <c r="AE4">
-        <v>435.491474889267</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>26356.59147488926</v>
+        <v>2656.5</v>
       </c>
       <c r="AG4">
-        <v>22962.39147488926</v>
+        <v>1643.2</v>
       </c>
       <c r="AH4">
-        <v>0.740330995005575</v>
+        <v>0.6195484864032837</v>
       </c>
       <c r="AI4">
-        <v>0.7883148700087881</v>
+        <v>0.6325602438327459</v>
       </c>
       <c r="AJ4">
-        <v>0.7129651581802716</v>
+        <v>0.5018170713085968</v>
       </c>
       <c r="AK4">
-        <v>0.7643966188787275</v>
+        <v>0.5157078743370053</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>289.9451901565995</v>
-      </c>
-      <c r="AP4">
-        <v>256.8500164976427</v>
       </c>
     </row>
     <row r="5">
@@ -981,13 +972,13 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.137</v>
+        <v>0.105</v>
       </c>
       <c r="E5">
-        <v>0.202</v>
+        <v>0.16</v>
       </c>
       <c r="F5">
-        <v>0.09380000000000001</v>
+        <v>0.0509</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1002,85 +993,85 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1910</v>
+        <v>1519.8</v>
       </c>
       <c r="L5">
-        <v>0.4189147694872133</v>
+        <v>0.3932212160413971</v>
       </c>
       <c r="M5">
-        <v>845.7</v>
+        <v>97.203</v>
       </c>
       <c r="N5">
-        <v>0.0526764914728489</v>
+        <v>0.006101998154390855</v>
       </c>
       <c r="O5">
-        <v>0.4427748691099477</v>
+        <v>0.06395775759968417</v>
       </c>
       <c r="P5">
-        <v>808.2</v>
+        <v>0.003</v>
       </c>
       <c r="Q5">
-        <v>0.0503407123192107</v>
+        <v>1.883274637940451e-07</v>
       </c>
       <c r="R5">
-        <v>0.4231413612565445</v>
+        <v>1.973943939992104e-06</v>
       </c>
       <c r="S5">
-        <v>37.5</v>
+        <v>97.2</v>
       </c>
       <c r="T5">
-        <v>0.04434196523589926</v>
+        <v>0.9999691367550384</v>
       </c>
       <c r="U5">
-        <v>2843.2</v>
+        <v>4533.3</v>
       </c>
       <c r="V5">
-        <v>0.1770956610566442</v>
+        <v>0.2845816305391815</v>
       </c>
       <c r="W5">
-        <v>0.210809796585102</v>
+        <v>0.1618151231873256</v>
       </c>
       <c r="X5">
-        <v>0.0748644033413372</v>
+        <v>0.07366053112839516</v>
       </c>
       <c r="Y5">
-        <v>0.1359453932437648</v>
+        <v>0.08815459205893048</v>
       </c>
       <c r="Z5">
-        <v>0.1481623501121113</v>
+        <v>0.1157546062246927</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04476577939185675</v>
+        <v>0.04244073081189914</v>
       </c>
       <c r="AC5">
-        <v>-0.04476577939185675</v>
+        <v>-0.04244073081189914</v>
       </c>
       <c r="AD5">
-        <v>26840.6</v>
+        <v>26006.8</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>26840.6</v>
+        <v>26006.8</v>
       </c>
       <c r="AG5">
-        <v>23997.4</v>
+        <v>21473.5</v>
       </c>
       <c r="AH5">
-        <v>0.6257250228463791</v>
+        <v>0.6201471272042254</v>
       </c>
       <c r="AI5">
-        <v>0.7384177744519763</v>
+        <v>0.7253730510696454</v>
       </c>
       <c r="AJ5">
-        <v>0.599156097073804</v>
+        <v>0.5741086324164778</v>
       </c>
       <c r="AK5">
-        <v>0.7162205720834726</v>
+        <v>0.6856227869360179</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1097,7 +1088,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Banco del Bajío, S.A., Institución de Banca Múltiple (BMV:BBAJIO O)</t>
+          <t>Grupo Elektra, S.A.B. de C.V. (BMV:ELEKTRA *)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1106,13 +1097,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.208</v>
-      </c>
-      <c r="E6">
-        <v>0.308</v>
-      </c>
-      <c r="F6">
-        <v>0.06269999999999999</v>
+        <v>0.0839</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1127,85 +1112,85 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>282.6</v>
+        <v>-158.5</v>
       </c>
       <c r="L6">
-        <v>0.4022775800711744</v>
+        <v>-0.05628151409701016</v>
       </c>
       <c r="M6">
-        <v>105.65</v>
+        <v>143.8</v>
       </c>
       <c r="N6">
-        <v>0.05335858585858586</v>
+        <v>0.009526143899094421</v>
       </c>
       <c r="O6">
-        <v>0.3738499646142958</v>
+        <v>-0.9072555205047319</v>
       </c>
       <c r="P6">
-        <v>102.9</v>
+        <v>49.8</v>
       </c>
       <c r="Q6">
-        <v>0.05196969696969697</v>
+        <v>0.003299040098573728</v>
       </c>
       <c r="R6">
-        <v>0.3641188959660297</v>
+        <v>-0.3141955835962145</v>
       </c>
       <c r="S6">
-        <v>2.75</v>
+        <v>94.00000000000001</v>
       </c>
       <c r="T6">
-        <v>0.02602934216753431</v>
+        <v>0.6536856745479833</v>
       </c>
       <c r="U6">
-        <v>927.4</v>
+        <v>1098.2</v>
       </c>
       <c r="V6">
-        <v>0.4683838383838383</v>
+        <v>0.07275112120991302</v>
       </c>
       <c r="W6">
-        <v>0.1948428019856591</v>
+        <v>-0.03218666233449761</v>
       </c>
       <c r="X6">
-        <v>0.06719836857782198</v>
+        <v>0.05419445864936823</v>
       </c>
       <c r="Y6">
-        <v>0.1276444334078372</v>
+        <v>-0.08638112098386583</v>
       </c>
       <c r="Z6">
-        <v>0.1953043550786082</v>
+        <v>0.2014045827731213</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.04477518580605948</v>
+        <v>0.04453361481025302</v>
       </c>
       <c r="AC6">
-        <v>-0.04477518580605948</v>
+        <v>-0.04453361481025302</v>
       </c>
       <c r="AD6">
-        <v>2464.8</v>
+        <v>10668.4</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>2464.8</v>
+        <v>10668.4</v>
       </c>
       <c r="AG6">
-        <v>1537.4</v>
+        <v>9570.199999999999</v>
       </c>
       <c r="AH6">
-        <v>0.5545356371490281</v>
+        <v>0.414086486024911</v>
       </c>
       <c r="AI6">
-        <v>0.6156459186731941</v>
+        <v>0.7145229994374046</v>
       </c>
       <c r="AJ6">
-        <v>0.4370842099277876</v>
+        <v>0.3879994324055867</v>
       </c>
       <c r="AK6">
-        <v>0.4997724465249334</v>
+        <v>0.6918583635759004</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1222,7 +1207,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Grupo Financiero Inbursa, S.A.B. de C.V. (BMV:GFINBUR O)</t>
+          <t>Banco Santander México, S.A., Institución de Banca Múltiple, Grupo Financiero Santander México (BMV:BSMX B)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1231,13 +1216,13 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.0208</v>
+        <v>0.0959</v>
       </c>
       <c r="E7">
-        <v>-0.08839999999999999</v>
+        <v>0.0727</v>
       </c>
       <c r="F7">
-        <v>0.06320000000000001</v>
+        <v>-0.0369</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1246,97 +1231,103 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.004512880665359091</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.003350300380164928</v>
       </c>
       <c r="K7">
-        <v>673</v>
+        <v>887.4</v>
       </c>
       <c r="L7">
-        <v>0.4502274551779503</v>
+        <v>0.2962542565266742</v>
       </c>
       <c r="M7">
-        <v>532.6999999999999</v>
+        <v>249.07</v>
       </c>
       <c r="N7">
-        <v>0.06588581605897194</v>
+        <v>0.03601098821658353</v>
       </c>
       <c r="O7">
-        <v>0.7915304606240712</v>
+        <v>0.2806738787469011</v>
       </c>
       <c r="P7">
-        <v>503.9</v>
+        <v>246.9</v>
       </c>
       <c r="Q7">
-        <v>0.06232375204076585</v>
+        <v>0.03569724571676426</v>
       </c>
       <c r="R7">
-        <v>0.7487369985141159</v>
+        <v>0.2782285327924273</v>
       </c>
       <c r="S7">
-        <v>28.79999999999995</v>
+        <v>2.169999999999987</v>
       </c>
       <c r="T7">
-        <v>0.0540642012389712</v>
+        <v>0.008712410165816789</v>
       </c>
       <c r="U7">
-        <v>590.4</v>
+        <v>3782.4</v>
       </c>
       <c r="V7">
-        <v>0.07302231237322515</v>
+        <v>0.546866189546736</v>
       </c>
       <c r="W7">
-        <v>0.08799916315803237</v>
+        <v>0.1254222435797775</v>
       </c>
       <c r="X7">
-        <v>0.0574258839742737</v>
+        <v>0.1516152713683387</v>
       </c>
       <c r="Y7">
-        <v>0.03057327918375867</v>
+        <v>-0.02619302778856122</v>
       </c>
       <c r="Z7">
-        <v>0.111955780911794</v>
+        <v>0.09952450390257668</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>0.0003334369832605285</v>
       </c>
       <c r="AB7">
-        <v>0.04479402580415431</v>
+        <v>0.04744435523022269</v>
       </c>
       <c r="AC7">
-        <v>-0.04479402580415431</v>
+        <v>-0.04711091824696216</v>
       </c>
       <c r="AD7">
-        <v>5664</v>
+        <v>36441.6</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>494.9105862749169</v>
       </c>
       <c r="AF7">
-        <v>5664</v>
+        <v>36936.51058627492</v>
       </c>
       <c r="AG7">
-        <v>5073.6</v>
+        <v>33154.11058627492</v>
       </c>
       <c r="AH7">
-        <v>0.4119512407994647</v>
+        <v>0.8422799277054716</v>
       </c>
       <c r="AI7">
-        <v>0.4367606915377616</v>
+        <v>0.843341484239622</v>
       </c>
       <c r="AJ7">
-        <v>0.3855670729853787</v>
+        <v>0.827392198451574</v>
       </c>
       <c r="AK7">
-        <v>0.4098951348381781</v>
+        <v>0.8285335599591875</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>323.9253333333333</v>
+      </c>
+      <c r="AP7">
+        <v>294.7032052113326</v>
       </c>
     </row>
   </sheetData>
